--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,104 +550,144 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.64</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>009365</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>工银瑞信科技创新6个月定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>90.64</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>000538</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>42.85</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,20 +702,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>42.85</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +784,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.61</t>
+          <t>61.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -734,25 +822,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>59.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151001</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河稳健混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>71.02</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +946,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>88.66</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007808</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.98</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,15 +1022,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>78.03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.76</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,26 +1050,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>151001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>银河稳健混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>71.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010124</t>
+          <t>009364</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴银景气优选混合A</t>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010125</t>
+          <t>002291</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银景气优选混合C</t>
+          <t>诺安安鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>010124</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>兴银景气优选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1080,15 +1288,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>88.31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>010125</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>兴银景气优选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>002003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>工银瑞信新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>009365</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>72.58</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1220,15 +1478,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>72.58</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002291</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>诺安安鑫灵活配置混合</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>007808</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>北信瑞丰量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1322,26 +1620,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>84.98</t>
-        </is>
-      </c>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -1644,6 +1644,1124 @@
       </c>
       <c r="H24" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2767,4 +2768,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8948</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3964,4 +3965,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3973,7 +3974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3984,17 +3985,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4004,14 +4025,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.46</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4020,14 +4063,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.85</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4036,14 +4101,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.09</v>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4052,13 +4139,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9558</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4331</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3374</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5664,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,17 +5676,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5695,14 +5716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.39</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8185</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5711,14 +5754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.46</v>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5727,14 +5792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.85</v>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5743,14 +5830,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.09</v>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5759,13 +5868,1343 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003059</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7087,7 +7088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7098,17 +7099,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7118,14 +7139,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.84</v>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7134,14 +7177,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.39</v>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7150,14 +7215,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.46</v>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7166,14 +7253,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.85</v>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7182,14 +7291,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.09</v>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -7198,13 +7329,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.46</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>10.84</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>27.39</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>14.46</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>8.85</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>11.09</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +2568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4109,7 +4258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5305,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6423,7 +6572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7346,7 +7495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002810-山东赫达.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.46</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>10.84</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>27.39</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>14.46</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>8.85</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>11.09</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,312 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +916,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1146,7 +1539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2568,7 +2961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4258,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5454,7 +5847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6572,7 +6965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7493,286 +7886,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2466</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009364</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1595</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>